--- a/api/src/models/FeaturedModel.xlsx
+++ b/api/src/models/FeaturedModel.xlsx
@@ -389,802 +389,802 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-0.1380746215581894</v>
+        <v>0.33931639790534973</v>
       </c>
       <c r="B1">
-        <v>-0.15595732629299164</v>
+        <v>0.04077084735035896</v>
       </c>
       <c r="C1">
-        <v>-0.7602542638778687</v>
+        <v>0.6677506566047668</v>
       </c>
       <c r="D1">
-        <v>0.6097729802131653</v>
+        <v>0.04652610421180725</v>
       </c>
       <c r="E1">
-        <v>0.1925588995218277</v>
+        <v>-0.2790258824825287</v>
       </c>
       <c r="F1">
-        <v>-0.36893221735954285</v>
+        <v>0.3633421063423157</v>
       </c>
       <c r="G1">
-        <v>-0.0667305514216423</v>
+        <v>0.8413026332855225</v>
       </c>
       <c r="H1">
-        <v>-0.3538484573364258</v>
+        <v>0.6780054569244385</v>
       </c>
       <c r="I1">
-        <v>-0.8504257798194885</v>
+        <v>0.23089051246643066</v>
       </c>
       <c r="J1">
-        <v>-0.04440437629818916</v>
+        <v>-0.1598913073539734</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-0.35282522439956665</v>
+        <v>0.829618513584137</v>
       </c>
       <c r="B2">
-        <v>0.0506005696952343</v>
+        <v>-0.4804738759994507</v>
       </c>
       <c r="C2">
-        <v>0.3471498489379883</v>
+        <v>-0.5141460299491882</v>
       </c>
       <c r="D2">
-        <v>-0.7486892938613892</v>
+        <v>-0.11257612705230713</v>
       </c>
       <c r="E2">
-        <v>0.5348326563835144</v>
+        <v>0.7640036940574646</v>
       </c>
       <c r="F2">
-        <v>-0.9084622859954834</v>
+        <v>-0.017811724916100502</v>
       </c>
       <c r="G2">
-        <v>0.320478618144989</v>
+        <v>-0.7109879851341248</v>
       </c>
       <c r="H2">
-        <v>0.24426619708538055</v>
+        <v>0.5208333134651184</v>
       </c>
       <c r="I2">
-        <v>0.24744759500026703</v>
+        <v>0.18321512639522552</v>
       </c>
       <c r="J2">
-        <v>-0.6776309013366699</v>
+        <v>0.1076541319489479</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-0.1939968466758728</v>
+        <v>-0.08774939924478531</v>
       </c>
       <c r="B3">
-        <v>-0.042007576674222946</v>
+        <v>0.34851861000061035</v>
       </c>
       <c r="C3">
-        <v>-0.09271317720413208</v>
+        <v>-0.25248077511787415</v>
       </c>
       <c r="D3">
-        <v>-0.04748530685901642</v>
+        <v>-0.22994329035282135</v>
       </c>
       <c r="E3">
-        <v>-0.005852998699992895</v>
+        <v>-0.43931201100349426</v>
       </c>
       <c r="F3">
-        <v>-0.011881832033395767</v>
+        <v>-0.04522402584552765</v>
       </c>
       <c r="G3">
-        <v>0.7003135085105896</v>
+        <v>-0.08252202719449997</v>
       </c>
       <c r="H3">
-        <v>-0.8223140835762024</v>
+        <v>0.8811923265457153</v>
       </c>
       <c r="I3">
-        <v>-0.15300557017326355</v>
+        <v>0.14979161322116852</v>
       </c>
       <c r="J3">
-        <v>-0.10357518494129181</v>
+        <v>0.07046452164649963</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-0.0775231122970581</v>
+        <v>0.0567937046289444</v>
       </c>
       <c r="B4">
-        <v>-0.01470875646919012</v>
+        <v>-0.19826780259609222</v>
       </c>
       <c r="C4">
-        <v>0.13741430640220642</v>
+        <v>-0.22216865420341492</v>
       </c>
       <c r="D4">
-        <v>-0.21042679250240326</v>
+        <v>-0.2251625657081604</v>
       </c>
       <c r="E4">
-        <v>-0.0930991917848587</v>
+        <v>-0.030988724902272224</v>
       </c>
       <c r="F4">
-        <v>-0.3492986261844635</v>
+        <v>0.29542675614356995</v>
       </c>
       <c r="G4">
-        <v>-0.1066611185669899</v>
+        <v>-0.36113160848617554</v>
       </c>
       <c r="H4">
-        <v>-0.35862287878990173</v>
+        <v>0.16526304185390472</v>
       </c>
       <c r="I4">
-        <v>0.07069224119186401</v>
+        <v>0.06586602330207825</v>
       </c>
       <c r="J4">
-        <v>-0.23444995284080505</v>
+        <v>-0.08320789784193039</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-0.2051471471786499</v>
+        <v>0.33523544669151306</v>
       </c>
       <c r="B5">
-        <v>0.010444310493767262</v>
+        <v>-0.1133280098438263</v>
       </c>
       <c r="C5">
-        <v>0.12473022192716599</v>
+        <v>-0.2901704013347626</v>
       </c>
       <c r="D5">
-        <v>-0.3363586962223053</v>
+        <v>-0.11090826988220215</v>
       </c>
       <c r="E5">
-        <v>0.2296747863292694</v>
+        <v>0.21116633713245392</v>
       </c>
       <c r="F5">
-        <v>-0.39606139063835144</v>
+        <v>-0.019683584570884705</v>
       </c>
       <c r="G5">
-        <v>0.32833021879196167</v>
+        <v>-0.32911163568496704</v>
       </c>
       <c r="H5">
-        <v>-0.11738740652799606</v>
+        <v>0.46439749002456665</v>
       </c>
       <c r="I5">
-        <v>0.06526045501232147</v>
+        <v>0.11997107416391373</v>
       </c>
       <c r="J5">
-        <v>-0.321029931306839</v>
+        <v>0.06551534682512283</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-1.5892993587840465e-8</v>
+        <v>-1.3317260183498547e-8</v>
       </c>
       <c r="B6">
-        <v>8.772931714418064e-9</v>
+        <v>8.100069059935322e-9</v>
       </c>
       <c r="C6">
-        <v>-2.1570416286476046e-10</v>
+        <v>8.575356957862823e-8</v>
       </c>
       <c r="D6">
-        <v>7.222616726920705e-9</v>
+        <v>2.7967834625997057e-7</v>
       </c>
       <c r="E6">
-        <v>7.013302383285236e-9</v>
+        <v>-5.708638894930118e-9</v>
       </c>
       <c r="F6">
-        <v>3.480583599113629e-9</v>
+        <v>1.1975060942859272e-8</v>
       </c>
       <c r="G6">
-        <v>-5.513222323116906e-9</v>
+        <v>1.2711889496586082e-7</v>
       </c>
       <c r="H6">
-        <v>-2.818138078453103e-8</v>
+        <v>-1.2278303529456025e-7</v>
       </c>
       <c r="I6">
-        <v>4.424495880783752e-9</v>
+        <v>1.7936814700192372e-8</v>
       </c>
       <c r="J6">
-        <v>1.4817899796071288e-8</v>
+        <v>-7.829522274960254e-8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-1.5435093203564065e-9</v>
+        <v>-2.3669004534099258e-8</v>
       </c>
       <c r="B7">
-        <v>1.852495401521992e-8</v>
+        <v>5.159867200177359e-9</v>
       </c>
       <c r="C7">
-        <v>-2.8349915748293597e-9</v>
+        <v>-1.1223485074651762e-7</v>
       </c>
       <c r="D7">
-        <v>1.0943584927147754e-9</v>
+        <v>5.994333207581803e-8</v>
       </c>
       <c r="E7">
-        <v>-6.810955799352314e-9</v>
+        <v>-3.111572510761107e-8</v>
       </c>
       <c r="F7">
-        <v>-1.0592431820555248e-8</v>
+        <v>-1.0696921037833818e-7</v>
       </c>
       <c r="G7">
-        <v>-4.9868722484802674e-9</v>
+        <v>3.4983450802883453e-8</v>
       </c>
       <c r="H7">
-        <v>-6.434855315262666e-9</v>
+        <v>-5.275859038533781e-8</v>
       </c>
       <c r="I7">
-        <v>1.9343611434852193e-10</v>
+        <v>6.488576786978228e-8</v>
       </c>
       <c r="J7">
-        <v>5.560443216978683e-10</v>
+        <v>1.1347216855028819e-7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>9.149429658350527e-9</v>
+        <v>-2.0028947389505447e-8</v>
       </c>
       <c r="B8">
-        <v>-4.584893575909632e-10</v>
+        <v>4.496346850402233e-9</v>
       </c>
       <c r="C8">
-        <v>1.5243427853306457e-8</v>
+        <v>4.894789285003753e-8</v>
       </c>
       <c r="D8">
-        <v>1.811535632612049e-8</v>
+        <v>2.4578493906801668e-8</v>
       </c>
       <c r="E8">
-        <v>-1.94232385730686e-9</v>
+        <v>3.457442687704315e-8</v>
       </c>
       <c r="F8">
-        <v>-2.0895325469894033e-9</v>
+        <v>-3.7348616643839705e-8</v>
       </c>
       <c r="G8">
-        <v>1.1373138875114819e-8</v>
+        <v>-3.752515453925298e-8</v>
       </c>
       <c r="H8">
-        <v>-1.7996006906884077e-9</v>
+        <v>1.2559357998043197e-8</v>
       </c>
       <c r="I8">
-        <v>-1.2117227221608573e-9</v>
+        <v>-3.234117329498076e-8</v>
       </c>
       <c r="J8">
-        <v>-1.1098061136749493e-8</v>
+        <v>-5.842617412099571e-8</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-1.8717482674901476e-8</v>
+        <v>-4.0527226019548834e-8</v>
       </c>
       <c r="B9">
-        <v>2.446111579956778e-8</v>
+        <v>-1.7011819863910205e-7</v>
       </c>
       <c r="C9">
-        <v>3.006423909823752e-8</v>
+        <v>4.682532761535185e-8</v>
       </c>
       <c r="D9">
-        <v>-7.574361582385336e-9</v>
+        <v>1.5639402306533157e-7</v>
       </c>
       <c r="E9">
-        <v>-1.1542163669275851e-8</v>
+        <v>2.077785836718249e-7</v>
       </c>
       <c r="F9">
-        <v>6.935789276241167e-9</v>
+        <v>-3.814657034695301e-8</v>
       </c>
       <c r="G9">
-        <v>-7.291212633653288e-10</v>
+        <v>7.32030329686495e-8</v>
       </c>
       <c r="H9">
-        <v>-9.016599911149115e-9</v>
+        <v>-1.1878271699572451e-8</v>
       </c>
       <c r="I9">
-        <v>-1.5304379985536798e-8</v>
+        <v>6.479488945387857e-8</v>
       </c>
       <c r="J9">
-        <v>1.3892714534335937e-8</v>
+        <v>-1.0214540679953643e-7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-6.221358539448829e-9</v>
+        <v>1.2953456973718858e-8</v>
       </c>
       <c r="B10">
-        <v>1.1694911705717459e-8</v>
+        <v>-8.202599133255717e-8</v>
       </c>
       <c r="C10">
-        <v>-3.860159747404168e-9</v>
+        <v>1.326881431396032e-7</v>
       </c>
       <c r="D10">
-        <v>-1.405782779073661e-8</v>
+        <v>-5.344091036363352e-8</v>
       </c>
       <c r="E10">
-        <v>-1.9246705562636635e-8</v>
+        <v>1.100906743545238e-7</v>
       </c>
       <c r="F10">
-        <v>-1.7893734494123237e-8</v>
+        <v>8.80052439811152e-8</v>
       </c>
       <c r="G10">
-        <v>1.675768679376688e-8</v>
+        <v>-3.775848256282188e-8</v>
       </c>
       <c r="H10">
-        <v>1.7295572751763189e-9</v>
+        <v>4.470572534387429e-8</v>
       </c>
       <c r="I10">
-        <v>4.355601213035243e-9</v>
+        <v>2.032328438872355e-7</v>
       </c>
       <c r="J10">
-        <v>-1.6803520352937085e-8</v>
+        <v>7.669049750802515e-8</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1.0281238083109656e-8</v>
+        <v>2.1545350392671025e-8</v>
       </c>
       <c r="B11">
-        <v>1.9697721231892729e-10</v>
+        <v>-6.711508149237488e-8</v>
       </c>
       <c r="C11">
-        <v>-6.5681313721199786e-9</v>
+        <v>-1.1142073219616577e-7</v>
       </c>
       <c r="D11">
-        <v>2.1288730778223908e-8</v>
+        <v>2.7429470250694976e-8</v>
       </c>
       <c r="E11">
-        <v>5.3293116586417e-9</v>
+        <v>5.795880397840847e-8</v>
       </c>
       <c r="F11">
-        <v>-1.188432019461061e-8</v>
+        <v>6.0225802123170524e-9</v>
       </c>
       <c r="G11">
-        <v>1.024713647268527e-8</v>
+        <v>-2.121766584650686e-8</v>
       </c>
       <c r="H11">
-        <v>4.085513871654456e-11</v>
+        <v>1.745160815858071e-8</v>
       </c>
       <c r="I11">
-        <v>3.508454859968424e-9</v>
+        <v>8.723448274849943e-8</v>
       </c>
       <c r="J11">
-        <v>-7.813909519427398e-9</v>
+        <v>-4.7857781737548066e-8</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>-4.0403283496637243e-10</v>
+        <v>-1.8450066363584483e-8</v>
       </c>
       <c r="B12">
-        <v>1.365119661755898e-8</v>
+        <v>7.4302168862061535e-9</v>
       </c>
       <c r="C12">
-        <v>8.047537747302158e-9</v>
+        <v>-7.531029666552058e-8</v>
       </c>
       <c r="D12">
-        <v>4.072364223617342e-9</v>
+        <v>-1.5826737254087675e-8</v>
       </c>
       <c r="E12">
-        <v>7.269723045766341e-9</v>
+        <v>-1.4161324557449007e-8</v>
       </c>
       <c r="F12">
-        <v>-1.6297617477789572e-8</v>
+        <v>-1.3200901705090473e-8</v>
       </c>
       <c r="G12">
-        <v>1.5947197340437924e-8</v>
+        <v>-3.934932735205621e-8</v>
       </c>
       <c r="H12">
-        <v>9.676757173338046e-9</v>
+        <v>4.043177792567576e-9</v>
       </c>
       <c r="I12">
-        <v>1.5573389688938732e-8</v>
+        <v>-1.5024846788946888e-7</v>
       </c>
       <c r="J12">
-        <v>-1.0143689443964377e-8</v>
+        <v>-1.0484373369479272e-8</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-1.3669358978063428e-8</v>
+        <v>-2.6690816223862157e-9</v>
       </c>
       <c r="B13">
-        <v>-1.706387919853114e-8</v>
+        <v>1.8905286225390228e-8</v>
       </c>
       <c r="C13">
-        <v>3.771227330418014e-9</v>
+        <v>3.5790424846027236e-8</v>
       </c>
       <c r="D13">
-        <v>-2.239997076713962e-9</v>
+        <v>-8.74846577403332e-8</v>
       </c>
       <c r="E13">
-        <v>5.757105903114734e-9</v>
+        <v>-1.2261115500677988e-7</v>
       </c>
       <c r="F13">
-        <v>-7.77848097044398e-9</v>
+        <v>5.905923927684853e-8</v>
       </c>
       <c r="G13">
-        <v>1.2572836993740566e-8</v>
+        <v>7.979888039244543e-8</v>
       </c>
       <c r="H13">
-        <v>1.2834423301910647e-8</v>
+        <v>-4.958156551992943e-8</v>
       </c>
       <c r="I13">
-        <v>-5.23657606166239e-9</v>
+        <v>-1.2779656799466466e-7</v>
       </c>
       <c r="J13">
-        <v>1.2704472140967482e-8</v>
+        <v>8.73032135473295e-8</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>9.305700210404666e-9</v>
+        <v>-5.602877273247486e-9</v>
       </c>
       <c r="B14">
-        <v>1.2790295045306266e-8</v>
+        <v>-3.353059696564742e-8</v>
       </c>
       <c r="C14">
-        <v>7.57997664635468e-9</v>
+        <v>-4.19454018185661e-8</v>
       </c>
       <c r="D14">
-        <v>-1.0892412305452126e-8</v>
+        <v>-4.309486101305993e-9</v>
       </c>
       <c r="E14">
-        <v>-2.5833544192721547e-9</v>
+        <v>-2.6618081960805284e-8</v>
       </c>
       <c r="F14">
-        <v>2.369778817623569e-9</v>
+        <v>-1.7983833089374457e-8</v>
       </c>
       <c r="G14">
-        <v>2.245583807791718e-8</v>
+        <v>2.518178732202614e-8</v>
       </c>
       <c r="H14">
-        <v>1.3751673577644397e-8</v>
+        <v>-4.263274178128995e-8</v>
       </c>
       <c r="I14">
-        <v>-5.612720510583813e-9</v>
+        <v>1.0116895765577283e-7</v>
       </c>
       <c r="J14">
-        <v>1.490579748519849e-8</v>
+        <v>3.706908913159168e-8</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1.7442797428657286e-8</v>
+        <v>1.2513019953530602e-7</v>
       </c>
       <c r="B15">
-        <v>-6.670467733727037e-9</v>
+        <v>-4.1934594463555186e-8</v>
       </c>
       <c r="C15">
-        <v>-7.645750699225573e-10</v>
+        <v>-6.748662961797436e-9</v>
       </c>
       <c r="D15">
-        <v>1.2237877378140638e-9</v>
+        <v>7.483341590841519e-8</v>
       </c>
       <c r="E15">
-        <v>-3.41407258019899e-9</v>
+        <v>-1.1868682747717685e-7</v>
       </c>
       <c r="F15">
-        <v>7.289241210628461e-9</v>
+        <v>3.789849500890341e-8</v>
       </c>
       <c r="G15">
-        <v>1.241605263047063e-9</v>
+        <v>-3.234120882211755e-8</v>
       </c>
       <c r="H15">
-        <v>2.2337991456566897e-9</v>
+        <v>2.7473634034436145e-8</v>
       </c>
       <c r="I15">
-        <v>-5.903235233972737e-9</v>
+        <v>-4.6171464873623336e-8</v>
       </c>
       <c r="J15">
-        <v>7.62875806969987e-9</v>
+        <v>1.4644294310528494e-7</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>-5.266385105784366e-9</v>
+        <v>5.725777185716652e-8</v>
       </c>
       <c r="B16">
-        <v>-1.3232924089834341e-8</v>
+        <v>1.4524282221373142e-7</v>
       </c>
       <c r="C16">
-        <v>-1.8668844248281857e-9</v>
+        <v>1.5718428869604395e-7</v>
       </c>
       <c r="D16">
-        <v>4.89247087287481e-9</v>
+        <v>1.0415114815032211e-7</v>
       </c>
       <c r="E16">
-        <v>5.76635983406959e-9</v>
+        <v>-5.407062531048723e-8</v>
       </c>
       <c r="F16">
-        <v>1.730124132848232e-8</v>
+        <v>8.077926594296514e-8</v>
       </c>
       <c r="G16">
-        <v>-7.902120735536755e-9</v>
+        <v>7.498084642065805e-8</v>
       </c>
       <c r="H16">
-        <v>2.6387700913232948e-9</v>
+        <v>3.5926401853458856e-9</v>
       </c>
       <c r="I16">
-        <v>-1.9857044009086167e-8</v>
+        <v>2.344263094755661e-8</v>
       </c>
       <c r="J16">
-        <v>1.1044774872459584e-8</v>
+        <v>5.570070271687655e-8</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1.589786968736462e-8</v>
+        <v>-6.633040783299293e-8</v>
       </c>
       <c r="B17">
-        <v>1.3508458795996603e-9</v>
+        <v>-1.0544492567987618e-7</v>
       </c>
       <c r="C17">
-        <v>-1.7313629641080297e-8</v>
+        <v>-6.888150494432921e-8</v>
       </c>
       <c r="D17">
-        <v>-8.57959051026036e-11</v>
+        <v>-7.375187571767583e-9</v>
       </c>
       <c r="E17">
-        <v>1.1143165501437124e-8</v>
+        <v>-4.67171439311187e-8</v>
       </c>
       <c r="F17">
-        <v>-1.8795938416804603e-10</v>
+        <v>2.780540420133093e-8</v>
       </c>
       <c r="G17">
-        <v>7.797532397546547e-9</v>
+        <v>3.0409168516598584e-8</v>
       </c>
       <c r="H17">
-        <v>3.795361358527316e-9</v>
+        <v>-1.4023646599525819e-7</v>
       </c>
       <c r="I17">
-        <v>9.586132776462364e-9</v>
+        <v>7.04357034919667e-8</v>
       </c>
       <c r="J17">
-        <v>1.0659107374522137e-8</v>
+        <v>6.037928557134364e-8</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>-1.1998055882145309e-8</v>
+        <v>5.1815973733937426e-8</v>
       </c>
       <c r="B18">
-        <v>-9.45765776805274e-9</v>
+        <v>6.334856550438417e-8</v>
       </c>
       <c r="C18">
-        <v>-1.2174283803290109e-8</v>
+        <v>-5.1154515290363634e-8</v>
       </c>
       <c r="D18">
-        <v>-8.052345457087995e-9</v>
+        <v>7.708027993658106e-8</v>
       </c>
       <c r="E18">
-        <v>6.889325554482184e-9</v>
+        <v>1.1478461203751067e-7</v>
       </c>
       <c r="F18">
-        <v>5.69050717658115e-9</v>
+        <v>-4.6272734977037544e-8</v>
       </c>
       <c r="G18">
-        <v>-1.746651534517696e-8</v>
+        <v>1.0497710256629489e-8</v>
       </c>
       <c r="H18">
-        <v>9.96611948522741e-9</v>
+        <v>1.2984050101749744e-7</v>
       </c>
       <c r="I18">
-        <v>-8.474278501147126e-10</v>
+        <v>-6.875837499364934e-8</v>
       </c>
       <c r="J18">
-        <v>-1.1261039212229207e-8</v>
+        <v>-3.4596126852193265e-8</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1.3455414560326062e-8</v>
+        <v>-6.243340067157988e-8</v>
       </c>
       <c r="B19">
-        <v>1.5647437123789132e-8</v>
+        <v>1.9257392125382466e-7</v>
       </c>
       <c r="C19">
-        <v>-3.5782372620474234e-9</v>
+        <v>-5.121733703816744e-9</v>
       </c>
       <c r="D19">
-        <v>4.062106651048225e-9</v>
+        <v>1.1931018661925918e-7</v>
       </c>
       <c r="E19">
-        <v>-6.789336204349183e-9</v>
+        <v>-2.3278714067487272e-8</v>
       </c>
       <c r="F19">
-        <v>-1.736666632723427e-8</v>
+        <v>4.0495734765499947e-8</v>
       </c>
       <c r="G19">
-        <v>-1.2610311905802973e-8</v>
+        <v>7.620350572778989e-9</v>
       </c>
       <c r="H19">
-        <v>2.402752885544146e-9</v>
+        <v>-8.957000829923345e-8</v>
       </c>
       <c r="I19">
-        <v>3.8590601825205795e-9</v>
+        <v>5.590541718447639e-8</v>
       </c>
       <c r="J19">
-        <v>7.259806089621179e-10</v>
+        <v>-3.4211740995715445e-8</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>-2.3004082194688635e-8</v>
+        <v>9.426225489050921e-8</v>
       </c>
       <c r="B20">
-        <v>-1.9869169420871913e-8</v>
+        <v>9.250140209360325e-9</v>
       </c>
       <c r="C20">
-        <v>-1.1018650880600944e-8</v>
+        <v>3.249350299938669e-8</v>
       </c>
       <c r="D20">
-        <v>-1.5616256066053325e-9</v>
+        <v>8.375639737323581e-8</v>
       </c>
       <c r="E20">
-        <v>5.842010430967548e-9</v>
+        <v>-4.915680307249204e-8</v>
       </c>
       <c r="F20">
-        <v>-7.515371436284113e-9</v>
+        <v>-1.6954541592895112e-7</v>
       </c>
       <c r="G20">
-        <v>1.1833276580830443e-8</v>
+        <v>-1.100374333873333e-7</v>
       </c>
       <c r="H20">
-        <v>1.0109135750724363e-9</v>
+        <v>9.414270607521757e-8</v>
       </c>
       <c r="I20">
-        <v>6.256226203760207e-9</v>
+        <v>2.928015696568309e-8</v>
       </c>
       <c r="J20">
-        <v>-1.4690490601765305e-8</v>
+        <v>8.563704767539093e-8</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>8.775294269014466e-9</v>
+        <v>5.544933756596038e-8</v>
       </c>
       <c r="B21">
-        <v>-1.0057427113352446e-10</v>
+        <v>-8.380001048635677e-8</v>
       </c>
       <c r="C21">
-        <v>7.871529206227024e-9</v>
+        <v>-4.322922464439216e-8</v>
       </c>
       <c r="D21">
-        <v>1.6080621279002116e-8</v>
+        <v>-9.696235991896174e-8</v>
       </c>
       <c r="E21">
-        <v>1.1875503247438246e-8</v>
+        <v>-4.230679095940104e-8</v>
       </c>
       <c r="F21">
-        <v>1.0385598159246001e-8</v>
+        <v>-4.7437207939537984e-8</v>
       </c>
       <c r="G21">
-        <v>1.6792332857562542e-8</v>
+        <v>4.6573923384585214e-8</v>
       </c>
       <c r="H21">
-        <v>-2.9580500271464416e-9</v>
+        <v>2.444787128297321e-8</v>
       </c>
       <c r="I21">
-        <v>-2.493453221674713e-9</v>
+        <v>1.5590258328757045e-7</v>
       </c>
       <c r="J21">
-        <v>8.647825566754364e-9</v>
+        <v>7.057938944399211e-8</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>-2.5319197405337945e-8</v>
+        <v>6.561989351894226e-8</v>
       </c>
       <c r="B22">
-        <v>7.392591871990817e-9</v>
+        <v>-1.5581704815303965e-8</v>
       </c>
       <c r="C22">
-        <v>9.503635212126937e-9</v>
+        <v>-3.586090535634412e-9</v>
       </c>
       <c r="D22">
-        <v>1.0935587990701379e-9</v>
+        <v>1.0736559197255247e-8</v>
       </c>
       <c r="E22">
-        <v>1.593148013512291e-8</v>
+        <v>4.678238951782987e-8</v>
       </c>
       <c r="F22">
-        <v>6.817213016319101e-9</v>
+        <v>-5.9183829392850384e-8</v>
       </c>
       <c r="G22">
-        <v>1.554481698917698e-8</v>
+        <v>-2.168252599688003e-8</v>
       </c>
       <c r="H22">
-        <v>2.742933102872769e-10</v>
+        <v>8.925292149797315e-8</v>
       </c>
       <c r="I22">
-        <v>6.461452206618645e-11</v>
+        <v>1.1985447656570614e-7</v>
       </c>
       <c r="J22">
-        <v>2.6106017347871102e-9</v>
+        <v>1.7635052529385575e-8</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>-1.296825757890474e-8</v>
+        <v>1.5620422288975533e-8</v>
       </c>
       <c r="B23">
-        <v>5.713122419592764e-9</v>
+        <v>4.7310198425520866e-8</v>
       </c>
       <c r="C23">
-        <v>-2.2985341630032963e-8</v>
+        <v>-2.7900437515882004e-8</v>
       </c>
       <c r="D23">
-        <v>5.752512244328045e-9</v>
+        <v>-2.283201538944013e-8</v>
       </c>
       <c r="E23">
-        <v>-3.3026563706073375e-9</v>
+        <v>4.6040407042369225e-9</v>
       </c>
       <c r="F23">
-        <v>-2.4308318913313087e-8</v>
+        <v>-1.4738759546162328e-7</v>
       </c>
       <c r="G23">
-        <v>-3.0699802699984957e-9</v>
+        <v>-1.036837744550212e-7</v>
       </c>
       <c r="H23">
-        <v>4.025971556131935e-9</v>
+        <v>8.095181414091712e-8</v>
       </c>
       <c r="I23">
-        <v>-6.8468457570247665e-9</v>
+        <v>-3.107662793766508e-9</v>
       </c>
       <c r="J23">
-        <v>-2.1413937290049034e-9</v>
+        <v>-6.623545090178595e-8</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2.1261953975226788e-8</v>
+        <v>1.49532425552934e-7</v>
       </c>
       <c r="B24">
-        <v>-1.84205184439179e-8</v>
+        <v>-1.0653188553533255e-8</v>
       </c>
       <c r="C24">
-        <v>-6.696531329453137e-9</v>
+        <v>-4.867387559670533e-8</v>
       </c>
       <c r="D24">
-        <v>5.623550958233636e-9</v>
+        <v>1.8171345317341547e-8</v>
       </c>
       <c r="E24">
-        <v>-1.1271067634766041e-8</v>
+        <v>-6.637950633603396e-8</v>
       </c>
       <c r="F24">
-        <v>-6.078221925776006e-9</v>
+        <v>2.4747498628130415e-7</v>
       </c>
       <c r="G24">
-        <v>7.616651309660938e-9</v>
+        <v>1.0497514324470103e-7</v>
       </c>
       <c r="H24">
-        <v>-1.7212961722634645e-8</v>
+        <v>2.8723766476446144e-8</v>
       </c>
       <c r="I24">
-        <v>3.6170342276875544e-9</v>
+        <v>4.1200713951639045e-8</v>
       </c>
       <c r="J24">
-        <v>1.5673288444872924e-8</v>
+        <v>4.6812349552283194e-8</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2.594321202309402e-9</v>
+        <v>-5.421332360810993e-8</v>
       </c>
       <c r="B25">
-        <v>9.048997107186096e-9</v>
+        <v>-2.1345689660279277e-8</v>
       </c>
       <c r="C25">
-        <v>8.047693178525606e-9</v>
+        <v>-3.840422735379434e-8</v>
       </c>
       <c r="D25">
-        <v>8.548956209608605e-9</v>
+        <v>2.698473622331221e-8</v>
       </c>
       <c r="E25">
-        <v>3.042432084043867e-8</v>
+        <v>-1.513694281030098e-9</v>
       </c>
       <c r="F25">
-        <v>7.618179864721242e-9</v>
+        <v>1.0080148626911978e-7</v>
       </c>
       <c r="G25">
-        <v>-7.24312920752368e-9</v>
+        <v>-6.312659195373271e-8</v>
       </c>
       <c r="H25">
-        <v>1.4643460666263763e-8</v>
+        <v>-7.785052957842709e-8</v>
       </c>
       <c r="I25">
-        <v>1.4906872181086328e-8</v>
+        <v>-7.954808012300418e-8</v>
       </c>
       <c r="J25">
-        <v>-1.528513426940492e-9</v>
+        <v>-1.2909947599837324e-7</v>
       </c>
     </row>
   </sheetData>
@@ -1200,354 +1200,354 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.09773162752389908</v>
+        <v>-0.24015472829341888</v>
       </c>
       <c r="B1">
-        <v>0.1102830320596695</v>
+        <v>-0.02892531454563141</v>
       </c>
       <c r="C1">
-        <v>0.5375593900680542</v>
+        <v>-0.4717966318130493</v>
       </c>
       <c r="D1">
-        <v>-0.43106356263160706</v>
+        <v>-0.03268489986658096</v>
       </c>
       <c r="E1">
-        <v>-0.1362256556749344</v>
+        <v>0.19736556708812714</v>
       </c>
       <c r="F1">
-        <v>0.2609923779964447</v>
+        <v>-0.2568795680999756</v>
       </c>
       <c r="G1">
-        <v>0.046950992196798325</v>
+        <v>-0.5945754051208496</v>
       </c>
       <c r="H1">
-        <v>0.2504032850265503</v>
+        <v>-0.48026910424232483</v>
       </c>
       <c r="I1">
-        <v>0.6013493537902832</v>
+        <v>-0.16344086825847626</v>
       </c>
       <c r="J1">
-        <v>0.03151361644268036</v>
+        <v>0.11296836286783218</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-0.048461418598890305</v>
+        <v>-0.30501461029052734</v>
       </c>
       <c r="B2">
-        <v>-0.04653739929199219</v>
+        <v>0.4048905670642853</v>
       </c>
       <c r="C2">
-        <v>-0.16936036944389343</v>
+        <v>-0.049363285303115845</v>
       </c>
       <c r="D2">
-        <v>0.17612941563129425</v>
+        <v>-0.14485831558704376</v>
       </c>
       <c r="E2">
-        <v>-0.15701065957546234</v>
+        <v>-0.5549420118331909</v>
       </c>
       <c r="F2">
-        <v>0.24997937679290771</v>
+        <v>-0.030658388510346413</v>
       </c>
       <c r="G2">
-        <v>0.44698965549468994</v>
+        <v>0.13697266578674316</v>
       </c>
       <c r="H2">
-        <v>-0.7011556029319763</v>
+        <v>0.5271936058998108</v>
       </c>
       <c r="I2">
-        <v>-0.18720783293247223</v>
+        <v>0.06229933723807335</v>
       </c>
       <c r="J2">
-        <v>0.11344318091869354</v>
+        <v>0.02390867844223976</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-1.0079934220641462e-8</v>
+        <v>-2.053674386104376e-8</v>
       </c>
       <c r="B3">
-        <v>-1.4739041986899792e-8</v>
+        <v>8.806286899698534e-8</v>
       </c>
       <c r="C3">
-        <v>-1.9662451222757227e-8</v>
+        <v>2.0161081693004235e-8</v>
       </c>
       <c r="D3">
-        <v>2.610208937880998e-9</v>
+        <v>-4.455476698694838e-8</v>
       </c>
       <c r="E3">
-        <v>2.0355428453910918e-9</v>
+        <v>-3.5252028851573414e-8</v>
       </c>
       <c r="F3">
-        <v>7.563941140098507e-10</v>
+        <v>-1.2737085341996135e-7</v>
       </c>
       <c r="G3">
-        <v>1.4859578012504926e-9</v>
+        <v>-3.380963065069409e-8</v>
       </c>
       <c r="H3">
-        <v>1.3267472454003837e-8</v>
+        <v>-6.455700685137344e-8</v>
       </c>
       <c r="I3">
-        <v>1.5723850665949612e-8</v>
+        <v>-7.968475301822764e-8</v>
       </c>
       <c r="J3">
-        <v>1.3927058617468902e-8</v>
+        <v>-2.570475388097293e-9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-0.07751405239105225</v>
+        <v>0.05691930651664734</v>
       </c>
       <c r="B4">
-        <v>-0.014708775095641613</v>
+        <v>-0.19828036427497864</v>
       </c>
       <c r="C4">
-        <v>0.13741059601306915</v>
+        <v>-0.22230768203735352</v>
       </c>
       <c r="D4">
-        <v>-0.21041426062583923</v>
+        <v>-0.2252282202243805</v>
       </c>
       <c r="E4">
-        <v>-0.0931074395775795</v>
+        <v>-0.030945688486099243</v>
       </c>
       <c r="F4">
-        <v>-0.34928426146507263</v>
+        <v>0.2954147458076477</v>
       </c>
       <c r="G4">
-        <v>-0.10667891800403595</v>
+        <v>-0.3612702786922455</v>
       </c>
       <c r="H4">
-        <v>-0.35861170291900635</v>
+        <v>0.16553080081939697</v>
       </c>
       <c r="I4">
-        <v>0.07069119811058044</v>
+        <v>0.06592793762683868</v>
       </c>
       <c r="J4">
-        <v>-0.2344374656677246</v>
+        <v>-0.08317525684833527</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-0.2913421392440796</v>
+        <v>0.7285193204879761</v>
       </c>
       <c r="B5">
-        <v>0.047598522156476974</v>
+        <v>-0.4465070366859436</v>
       </c>
       <c r="C5">
-        <v>0.31041282415390015</v>
+        <v>-0.4285884201526642</v>
       </c>
       <c r="D5">
-        <v>-0.6485381126403809</v>
+        <v>-0.07953138649463654</v>
       </c>
       <c r="E5">
-        <v>0.4660375416278839</v>
+        <v>0.7011319398880005</v>
       </c>
       <c r="F5">
-        <v>-0.7897907495498657</v>
+        <v>-0.012596236541867256</v>
       </c>
       <c r="G5">
-        <v>0.22216983139514923</v>
+        <v>-0.6140531301498413</v>
       </c>
       <c r="H5">
-        <v>0.2798435389995575</v>
+        <v>0.38071122765541077</v>
       </c>
       <c r="I5">
-        <v>0.2285703420639038</v>
+        <v>0.14688751101493835</v>
       </c>
       <c r="J5">
-        <v>-0.5815919637680054</v>
+        <v>0.0883469432592392</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-6.6270988696715e-11</v>
+        <v>-3.0432271813651823e-8</v>
       </c>
       <c r="B6">
-        <v>8.6512130792471e-9</v>
+        <v>6.498987659142585e-8</v>
       </c>
       <c r="C6">
-        <v>4.149734778025049e-9</v>
+        <v>-6.878524061448843e-8</v>
       </c>
       <c r="D6">
-        <v>-1.149027717417539e-8</v>
+        <v>-6.812994968186104e-8</v>
       </c>
       <c r="E6">
-        <v>1.875849031662824e-9</v>
+        <v>-1.7180557421170306e-8</v>
       </c>
       <c r="F6">
-        <v>4.794843633249002e-9</v>
+        <v>-1.72375624885035e-8</v>
       </c>
       <c r="G6">
-        <v>1.6412550207789423e-9</v>
+        <v>-1.9127011086084167e-8</v>
       </c>
       <c r="H6">
-        <v>-1.536503013710444e-8</v>
+        <v>8.778906845918755e-8</v>
       </c>
       <c r="I6">
-        <v>-2.0314208093452635e-9</v>
+        <v>4.821944799004996e-8</v>
       </c>
       <c r="J6">
-        <v>-1.6887057308068165e-9</v>
+        <v>1.2394178838803782e-7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-1.3103342411113772e-8</v>
+        <v>-1.0580709641772046e-7</v>
       </c>
       <c r="B7">
-        <v>-1.1200009808476352e-8</v>
+        <v>-6.96369113484252e-8</v>
       </c>
       <c r="C7">
-        <v>1.733814647408849e-9</v>
+        <v>5.024720195478949e-9</v>
       </c>
       <c r="D7">
-        <v>-1.2580837704945225e-8</v>
+        <v>4.567658962173482e-8</v>
       </c>
       <c r="E7">
-        <v>-2.322730630055503e-8</v>
+        <v>1.7066065538529074e-7</v>
       </c>
       <c r="F7">
-        <v>-3.2270019989510956e-10</v>
+        <v>-4.638600614725874e-9</v>
       </c>
       <c r="G7">
-        <v>-1.8208947238917972e-8</v>
+        <v>-2.392048870092367e-8</v>
       </c>
       <c r="H7">
-        <v>9.879703721793476e-10</v>
+        <v>-3.211199839370238e-8</v>
       </c>
       <c r="I7">
-        <v>-1.1680607869823945e-10</v>
+        <v>1.380885539248311e-8</v>
       </c>
       <c r="J7">
-        <v>-1.3384226171808677e-8</v>
+        <v>5.136996961141449e-8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.34196481108665466</v>
+        <v>-0.42935800552368164</v>
       </c>
       <c r="B8">
-        <v>-0.0007510790601372719</v>
+        <v>0.04292608052492142</v>
       </c>
       <c r="C8">
-        <v>-0.14024850726127625</v>
+        <v>0.47624778747558594</v>
       </c>
       <c r="D8">
-        <v>0.4738120138645172</v>
+        <v>0.22480496764183044</v>
       </c>
       <c r="E8">
-        <v>-0.3113672733306885</v>
+        <v>-0.1472848355770111</v>
       </c>
       <c r="F8">
-        <v>0.5440003275871277</v>
+        <v>0.04125227779150009</v>
       </c>
       <c r="G8">
-        <v>-0.6721811294555664</v>
+        <v>0.4748217463493347</v>
       </c>
       <c r="H8">
-        <v>0.4237060546875</v>
+        <v>-0.915884256362915</v>
       </c>
       <c r="I8">
-        <v>-0.03980691730976105</v>
+        <v>-0.21170203387737274</v>
       </c>
       <c r="J8">
-        <v>0.4710037112236023</v>
+        <v>-0.1118796318769455</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9.621317964558784e-9</v>
+        <v>1.4263277137160912e-7</v>
       </c>
       <c r="B9">
-        <v>-1.614058398047291e-8</v>
+        <v>-1.2207584632051294e-7</v>
       </c>
       <c r="C9">
-        <v>1.7807195717978175e-8</v>
+        <v>-5.2186976517987205e-8</v>
       </c>
       <c r="D9">
-        <v>2.9865141470963863e-9</v>
+        <v>9.870006323353664e-8</v>
       </c>
       <c r="E9">
-        <v>-3.444500240590287e-10</v>
+        <v>-5.8684047843371445e-8</v>
       </c>
       <c r="F9">
-        <v>1.687477002576543e-8</v>
+        <v>-2.350497219083536e-8</v>
       </c>
       <c r="G9">
-        <v>-3.781884139186786e-9</v>
+        <v>1.594353307154961e-7</v>
       </c>
       <c r="H9">
-        <v>-9.094563990785787e-10</v>
+        <v>-9.587346028183674e-8</v>
       </c>
       <c r="I9">
-        <v>2.1619717127663307e-9</v>
+        <v>-1.5147614718102886e-8</v>
       </c>
       <c r="J9">
-        <v>1.6512966993786904e-8</v>
+        <v>1.251419519121555e-7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-0.09773250669240952</v>
+        <v>0.24015486240386963</v>
       </c>
       <c r="B10">
-        <v>-0.11028401553630829</v>
+        <v>0.028925327584147453</v>
       </c>
       <c r="C10">
-        <v>-0.5375640988349915</v>
+        <v>0.471796452999115</v>
       </c>
       <c r="D10">
-        <v>0.4310673475265503</v>
+        <v>0.03268500044941902</v>
       </c>
       <c r="E10">
-        <v>0.1362268477678299</v>
+        <v>-0.19736579060554504</v>
       </c>
       <c r="F10">
-        <v>-0.26099467277526855</v>
+        <v>0.2568792998790741</v>
       </c>
       <c r="G10">
-        <v>-0.04695139452815056</v>
+        <v>0.5945755839347839</v>
       </c>
       <c r="H10">
-        <v>-0.25040552020072937</v>
+        <v>0.480269193649292</v>
       </c>
       <c r="I10">
-        <v>-0.6013546586036682</v>
+        <v>0.16344061493873596</v>
       </c>
       <c r="J10">
-        <v>-0.03151388838887215</v>
+        <v>-0.11296845972537994</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-3.648075619366864e-9</v>
+        <v>8.472120072156031e-8</v>
       </c>
       <c r="B11">
-        <v>5.373034239752883e-10</v>
+        <v>1.9156880526338682e-8</v>
       </c>
       <c r="C11">
-        <v>-1.8840580207069024e-9</v>
+        <v>3.582429464188408e-9</v>
       </c>
       <c r="D11">
-        <v>5.949581272091109e-9</v>
+        <v>-2.5739810283198494e-8</v>
       </c>
       <c r="E11">
-        <v>-7.839677351739738e-9</v>
+        <v>5.11339912634412e-8</v>
       </c>
       <c r="F11">
-        <v>5.016233206589504e-9</v>
+        <v>-1.8291995473873612e-8</v>
       </c>
       <c r="G11">
-        <v>-1.7088461201630878e-10</v>
+        <v>-1.107846259174039e-8</v>
       </c>
       <c r="H11">
-        <v>5.043772510759936e-9</v>
+        <v>-8.267396367500623e-8</v>
       </c>
       <c r="I11">
-        <v>6.641723171441072e-9</v>
+        <v>-1.122380055562644e-8</v>
       </c>
       <c r="J11">
-        <v>2.934257059550305e-9</v>
+        <v>2.113751840226996e-9</v>
       </c>
     </row>
   </sheetData>
